--- a/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>DPWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,96 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
       </c>
       <c r="F8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
@@ -752,19 +763,19 @@
         <v>400</v>
       </c>
       <c r="I8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
       </c>
       <c r="M8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
@@ -773,10 +784,19 @@
         <v>300</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>300</v>
+      </c>
+      <c r="R8" s="3">
+        <v>300</v>
+      </c>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,69 +822,87 @@
         <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O9" s="3">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>300</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +919,11 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +966,17 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +1019,22 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-100</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -987,64 +1046,73 @@
         <v>-100</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>5600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="S14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
-        <v>100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>100</v>
-      </c>
       <c r="M15" s="3">
         <v>100</v>
       </c>
@@ -1052,13 +1120,22 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1149,117 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>4000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>-200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>7700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>7100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-6800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,184 +1276,223 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G21" s="3">
         <v>2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-4000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-6400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-6700</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
         <v>700</v>
       </c>
       <c r="F22" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G22" s="3">
         <v>900</v>
       </c>
       <c r="H22" s="3">
+        <v>700</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>800</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-5000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-7100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1535,17 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1588,123 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-7100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-7100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1747,17 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1800,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1853,17 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1906,123 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-7100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +2065,128 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-7100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2203,11 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2224,64 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2324,70 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2113,14 +2400,14 @@
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2141,15 +2428,24 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2158,110 +2454,128 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>800</v>
+      </c>
+      <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>400</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3">
-        <v>300</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2275,52 +2589,70 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>4100</v>
       </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>800</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>700</v>
+      </c>
+      <c r="R48" s="3">
+        <v>800</v>
+      </c>
+      <c r="S48" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2345,26 +2677,35 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="S49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2748,17 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2801,17 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2463,13 +2822,13 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2487,16 +2846,25 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>900</v>
+      </c>
+      <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2907,70 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G54" s="3">
         <v>4800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>5200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1100</v>
       </c>
       <c r="L54" s="3">
         <v>1100</v>
       </c>
       <c r="M54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2987,11 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,184 +3008,223 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
       </c>
       <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>600</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
       </c>
       <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>600</v>
+      </c>
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>3100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>8800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>7200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>6100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>7500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>2200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G60" s="3">
         <v>9500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>11400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>8500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>9300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>7900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>6800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>7500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>11200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>5000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,40 +3267,49 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G62" s="3">
         <v>2400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>4100</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
@@ -2883,8 +3320,17 @@
       <c r="P62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>300</v>
+      </c>
+      <c r="R62" s="3">
+        <v>300</v>
+      </c>
+      <c r="S62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3373,17 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3426,17 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3479,70 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G66" s="3">
         <v>11900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>14000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>12500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>9300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>8100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>7100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>7800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>11500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>6000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>5300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3559,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3606,17 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,13 +3659,22 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3209,8 +3712,17 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3765,70 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-50200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-51700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-49600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-49400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-46800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-41800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-40900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-42800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-40500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-36400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-29400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-28100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3871,17 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3924,17 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3977,70 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-7100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-9000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-7300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-8300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-7000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-5900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-6700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-10200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +4083,128 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-7100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,38 +4221,41 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
-        <v>100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
-      </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
@@ -3667,13 +4263,22 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4321,17 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4374,17 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4427,17 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4480,17 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4533,70 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4613,11 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3990,16 +4652,25 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4713,17 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4766,17 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4122,16 +4811,25 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4846,11 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4893,17 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4946,17 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4999,17 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +5052,70 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>400</v>
+      </c>
+      <c r="L100" s="3">
+        <v>400</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +5158,66 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>DPWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
@@ -763,40 +767,43 @@
         <v>400</v>
       </c>
       <c r="I8" s="3">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
       </c>
       <c r="L8" s="3">
+        <v>400</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>300</v>
       </c>
       <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,7 +811,7 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -831,30 +838,33 @@
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
-      </c>
-      <c r="P9" s="3">
-        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
       </c>
       <c r="R9" s="3">
+        <v>300</v>
+      </c>
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -869,40 +879,43 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,13 +1045,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1043,23 +1063,23 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1067,27 +1087,30 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1099,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -1108,13 +1131,13 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
@@ -1129,13 +1152,16 @@
         <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1000</v>
       </c>
       <c r="M17" s="3">
         <v>1000</v>
       </c>
       <c r="N17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,220 +1312,233 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6700</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="3">
         <v>700</v>
       </c>
       <c r="G22" s="3">
+        <v>700</v>
+      </c>
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>400</v>
       </c>
       <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,32 +2313,33 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
@@ -2263,25 +2350,28 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,69 +2438,72 @@
         <v>500</v>
       </c>
       <c r="F43" s="3">
+        <v>500</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>500</v>
       </c>
       <c r="K43" s="3">
         <v>500</v>
       </c>
       <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2437,19 +2533,22 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2463,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2472,19 +2571,19 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>500</v>
@@ -2492,93 +2591,99 @@
       <c r="S45" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
         <v>600</v>
       </c>
       <c r="F46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G46" s="3">
         <v>700</v>
       </c>
       <c r="H46" s="3">
+        <v>700</v>
+      </c>
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>400</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E47" s="3">
         <v>1000</v>
       </c>
       <c r="F47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>300</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4100</v>
       </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
       <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2686,8 +2797,8 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -2698,14 +2809,17 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
-        <v>200</v>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2831,7 +2951,7 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -2855,16 +2975,19 @@
         <v>300</v>
       </c>
       <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
         <v>900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
         <v>4400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1100</v>
       </c>
       <c r="O54" s="3">
         <v>1100</v>
       </c>
       <c r="P54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3026,7 +3157,7 @@
         <v>500</v>
       </c>
       <c r="G57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>600</v>
@@ -3038,78 +3169,81 @@
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>2000</v>
       </c>
       <c r="R58" s="3">
         <v>2000</v>
@@ -3117,114 +3251,123 @@
       <c r="S58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E59" s="3">
         <v>6600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>7600</v>
       </c>
       <c r="F59" s="3">
         <v>7600</v>
       </c>
       <c r="G59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H59" s="3">
         <v>6700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E60" s="3">
         <v>10700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>3400</v>
       </c>
       <c r="M60" s="3">
         <v>3400</v>
       </c>
       <c r="N60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O60" s="3">
         <v>6800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,34 +3419,37 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4100</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
@@ -3312,7 +3458,7 @@
         <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E66" s="3">
         <v>12600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3600</v>
       </c>
       <c r="M66" s="3">
         <v>3600</v>
       </c>
       <c r="N66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O66" s="3">
         <v>7100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,16 +3833,19 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-50200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-51700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-49600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-49400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-41800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-40900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-42800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-40500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-28100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-8300</v>
       </c>
-      <c r="E76" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,16 +4422,17 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4242,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4251,13 +4450,13 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -4272,13 +4471,16 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4661,16 +4882,19 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4820,16 +5050,19 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,10 +5316,10 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
@@ -5082,40 +5328,43 @@
         <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>400</v>
       </c>
       <c r="M100" s="3">
+        <v>400</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>300</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>300</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>DPWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,110 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
       </c>
       <c r="G8" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
@@ -770,16 +777,16 @@
         <v>400</v>
       </c>
       <c r="J8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
       </c>
       <c r="L8" s="3">
+        <v>500</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>400</v>
@@ -788,36 +795,42 @@
         <v>300</v>
       </c>
       <c r="P8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>500</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
       </c>
       <c r="S8" s="3">
+        <v>500</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>300</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
@@ -841,30 +854,36 @@
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
-      </c>
-      <c r="R9" s="3">
-        <v>300</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1100</v>
       </c>
       <c r="T9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -882,40 +901,46 @@
         <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>-800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1081,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1066,46 +1105,52 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>5600</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1125,26 +1170,26 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
       </c>
       <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
-        <v>100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>100</v>
-      </c>
       <c r="P15" s="3">
         <v>100</v>
       </c>
@@ -1155,13 +1200,19 @@
         <v>100</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1600</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>-200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>7700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-7200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-6800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1378,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
-        <v>100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
-      </c>
       <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-6400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-6700</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,111 +1513,123 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>900</v>
       </c>
       <c r="I22" s="3">
         <v>700</v>
       </c>
       <c r="J22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K22" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>800</v>
       </c>
       <c r="M22" s="3">
+        <v>900</v>
+      </c>
+      <c r="N22" s="3">
+        <v>800</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-7000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-7100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-7100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-7100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-7100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-7100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,38 +2485,40 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
@@ -2353,25 +2526,31 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2441,49 +2626,55 @@
         <v>500</v>
       </c>
       <c r="G43" s="3">
+        <v>500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>500</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,25 +2727,31 @@
         <v>0</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2565,131 +2762,143 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>500</v>
+      </c>
+      <c r="V45" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>900</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E47" s="3">
         <v>1000</v>
       </c>
       <c r="F47" s="3">
+        <v>800</v>
+      </c>
+      <c r="G47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>400</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
-        <v>300</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="3">
+        <v>300</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2706,43 +2915,49 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4100</v>
       </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
         <v>200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>500</v>
       </c>
       <c r="O48" s="3">
         <v>400</v>
@@ -2751,19 +2966,25 @@
         <v>500</v>
       </c>
       <c r="Q48" s="3">
+        <v>400</v>
+      </c>
+      <c r="R48" s="3">
+        <v>500</v>
+      </c>
+      <c r="S48" s="3">
         <v>600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2800,11 +3021,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
@@ -2812,14 +3033,20 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,16 +3163,22 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -2954,10 +3193,10 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -2978,16 +3217,22 @@
         <v>300</v>
       </c>
       <c r="R52" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
       </c>
       <c r="T52" s="3">
+        <v>900</v>
+      </c>
+      <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F54" s="3">
         <v>4300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1300</v>
       </c>
       <c r="O54" s="3">
         <v>1100</v>
       </c>
       <c r="P54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3160,10 +3421,10 @@
         <v>500</v>
       </c>
       <c r="H57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
@@ -3172,154 +3433,172 @@
         <v>600</v>
       </c>
       <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="E58" s="3">
         <v>3500</v>
       </c>
       <c r="F58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>2000</v>
       </c>
       <c r="T58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F59" s="3">
         <v>6900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>8800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11100</v>
+        <v>11900</v>
       </c>
       <c r="E60" s="3">
-        <v>10700</v>
+        <v>12600</v>
       </c>
       <c r="F60" s="3">
         <v>11100</v>
@@ -3328,54 +3607,60 @@
         <v>10700</v>
       </c>
       <c r="H60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J60" s="3">
         <v>9500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>11400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>11200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3422,49 +3707,55 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>700</v>
+      </c>
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4100</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>200</v>
-      </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>300</v>
+      </c>
+      <c r="V62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F66" s="3">
         <v>12900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>13200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>13000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>14000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3845,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-53100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-52200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-52500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-52000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-50200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-51700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-49600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-49400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-46800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-41800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-40900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-42800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-40500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-36400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-29400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-28100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-8600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-8200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-8700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-8400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-7100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-9000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-7300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-8300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-7000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-5900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-10200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-7100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,47 +4818,49 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
-      </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
@@ -4474,13 +4871,19 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-400</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4885,16 +5326,22 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5053,16 +5512,22 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-900</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,55 +5807,61 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
-      </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>400</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>400</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,37 +5916,43 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5458,21 +5961,27 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,13 +769,13 @@
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
@@ -783,40 +787,43 @@
         <v>400</v>
       </c>
       <c r="L8" s="3">
+        <v>400</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>400</v>
       </c>
       <c r="O8" s="3">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
       </c>
       <c r="S8" s="3">
+        <v>300</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>300</v>
       </c>
       <c r="U8" s="3">
         <v>300</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,16 +831,16 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -860,25 +867,28 @@
         <v>300</v>
       </c>
       <c r="Q9" s="3">
+        <v>300</v>
+      </c>
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
-      </c>
-      <c r="S9" s="3">
-        <v>300</v>
       </c>
       <c r="T9" s="3">
         <v>300</v>
       </c>
       <c r="U9" s="3">
+        <v>300</v>
+      </c>
+      <c r="V9" s="3">
         <v>1100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -907,40 +917,43 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>-800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,17 +1104,20 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1111,23 +1131,23 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2900</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1135,27 +1155,30 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-1500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1176,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1185,13 +1208,13 @@
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>200</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
@@ -1206,13 +1229,16 @@
         <v>100</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>-100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1000</v>
       </c>
       <c r="P17" s="3">
         <v>1000</v>
       </c>
       <c r="Q17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-6700</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,123 +1553,129 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>700</v>
       </c>
       <c r="I22" s="3">
         <v>700</v>
       </c>
       <c r="J22" s="3">
+        <v>700</v>
+      </c>
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
-      </c>
-      <c r="T22" s="3">
-        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>300</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,41 +2573,42 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
@@ -2532,25 +2619,28 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2632,49 +2725,52 @@
         <v>500</v>
       </c>
       <c r="I43" s="3">
+        <v>500</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>500</v>
       </c>
       <c r="N43" s="3">
         <v>500</v>
       </c>
       <c r="O43" s="3">
+        <v>500</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2733,10 +2829,13 @@
         <v>0</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2749,12 +2848,12 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2768,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2777,19 +2876,19 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>500</v>
@@ -2797,111 +2896,117 @@
       <c r="V45" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>900</v>
       </c>
       <c r="F46" s="3">
         <v>900</v>
       </c>
       <c r="G46" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
       </c>
       <c r="I46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J46" s="3">
         <v>700</v>
       </c>
       <c r="K46" s="3">
+        <v>700</v>
+      </c>
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
       </c>
       <c r="R46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>600</v>
+      </c>
+      <c r="E47" s="3">
         <v>1100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>800</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1000</v>
       </c>
       <c r="H47" s="3">
         <v>1000</v>
       </c>
       <c r="I47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>400</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>300</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2921,70 +3026,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4100</v>
       </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
       <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3027,8 +3138,8 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -3039,14 +3150,17 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3">
-        <v>200</v>
+      <c r="U49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3181,7 +3301,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -3199,7 +3319,7 @@
         <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -3223,16 +3343,19 @@
         <v>300</v>
       </c>
       <c r="T52" s="3">
+        <v>300</v>
+      </c>
+      <c r="U52" s="3">
         <v>900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1100</v>
       </c>
       <c r="R54" s="3">
         <v>1100</v>
       </c>
       <c r="S54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3427,7 +3558,7 @@
         <v>500</v>
       </c>
       <c r="J57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
@@ -3439,34 +3570,37 @@
         <v>600</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,52 +3608,52 @@
         <v>3200</v>
       </c>
       <c r="E58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F58" s="3">
         <v>3500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>2000</v>
       </c>
       <c r="U58" s="3">
         <v>2000</v>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E59" s="3">
         <v>8200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>7600</v>
       </c>
       <c r="I59" s="3">
         <v>7600</v>
       </c>
       <c r="J59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K59" s="3">
         <v>6700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E60" s="3">
         <v>11900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7900</v>
-      </c>
-      <c r="O60" s="3">
-        <v>3400</v>
       </c>
       <c r="P60" s="3">
         <v>3400</v>
       </c>
       <c r="Q60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R60" s="3">
         <v>6800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,7 +3806,7 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3713,43 +3856,46 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>700</v>
       </c>
       <c r="F62" s="3">
+        <v>700</v>
+      </c>
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4100</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -3758,7 +3904,7 @@
         <v>200</v>
       </c>
       <c r="Q62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R62" s="3">
         <v>300</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E66" s="3">
         <v>12800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3600</v>
       </c>
       <c r="P66" s="3">
         <v>3600</v>
       </c>
       <c r="Q66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R66" s="3">
         <v>7100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,13 +4336,16 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -4186,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-50200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-51700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-49600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-49400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-46800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-41800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-40900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-42800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-40500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-36400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-28100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-8700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-8400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-10200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,22 +5018,23 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4847,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4856,13 +5055,13 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -4877,13 +5076,16 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5332,16 +5553,19 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5518,16 +5748,19 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-900</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,28 +6041,31 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
@@ -5828,40 +6074,43 @@
         <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>400</v>
       </c>
       <c r="P100" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,40 +6171,43 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5967,21 +6219,24 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>DPWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,13 +776,13 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>400</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
@@ -790,40 +794,43 @@
         <v>400</v>
       </c>
       <c r="M8" s="3">
+        <v>400</v>
+      </c>
+      <c r="N8" s="3">
         <v>500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
       </c>
       <c r="P8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>300</v>
       </c>
       <c r="S8" s="3">
         <v>300</v>
       </c>
       <c r="T8" s="3">
+        <v>300</v>
+      </c>
+      <c r="U8" s="3">
         <v>500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>300</v>
       </c>
       <c r="V8" s="3">
         <v>300</v>
       </c>
       <c r="W8" s="3">
+        <v>300</v>
+      </c>
+      <c r="X8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -834,16 +841,16 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
@@ -870,25 +877,28 @@
         <v>300</v>
       </c>
       <c r="R9" s="3">
+        <v>300</v>
+      </c>
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>200</v>
-      </c>
-      <c r="T9" s="3">
-        <v>300</v>
       </c>
       <c r="U9" s="3">
         <v>300</v>
       </c>
       <c r="V9" s="3">
+        <v>300</v>
+      </c>
+      <c r="W9" s="3">
         <v>1100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -899,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
@@ -920,40 +930,43 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>-800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1134,23 +1154,23 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2900</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1158,30 +1178,33 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-1500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>1300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1202,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1211,13 +1234,13 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
@@ -1232,13 +1255,16 @@
         <v>100</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,64 +1295,67 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>-100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1000</v>
       </c>
       <c r="Q17" s="3">
         <v>1000</v>
       </c>
       <c r="R17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-6800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,129 +1457,135 @@
         <v>1100</v>
       </c>
       <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>900</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>3200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>800</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-6700</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,126 +1596,132 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>700</v>
       </c>
       <c r="J22" s="3">
         <v>700</v>
       </c>
       <c r="K22" s="3">
+        <v>700</v>
+      </c>
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
-      </c>
-      <c r="U22" s="3">
-        <v>300</v>
       </c>
       <c r="V22" s="3">
         <v>300</v>
       </c>
       <c r="W22" s="3">
+        <v>300</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,129 +2273,135 @@
         <v>-1100</v>
       </c>
       <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M32" s="3">
+        <v>900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P32" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,43 +2660,44 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
@@ -2622,25 +2709,28 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,13 +2794,16 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
         <v>500</v>
@@ -2728,49 +2821,52 @@
         <v>500</v>
       </c>
       <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
-      </c>
-      <c r="N43" s="3">
-        <v>500</v>
       </c>
       <c r="O43" s="3">
         <v>500</v>
       </c>
       <c r="P43" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2832,10 +2928,13 @@
         <v>0</v>
       </c>
       <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2851,12 +2950,12 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2870,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2879,19 +2978,19 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>500</v>
@@ -2899,73 +2998,79 @@
       <c r="W45" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
-      </c>
-      <c r="F46" s="3">
-        <v>900</v>
       </c>
       <c r="G46" s="3">
         <v>900</v>
       </c>
       <c r="H46" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="I46" s="3">
         <v>600</v>
       </c>
       <c r="J46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K46" s="3">
         <v>700</v>
       </c>
       <c r="L46" s="3">
+        <v>700</v>
+      </c>
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
       <c r="S46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
       <c r="U46" s="3">
+        <v>300</v>
+      </c>
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2973,43 +3078,43 @@
         <v>600</v>
       </c>
       <c r="E47" s="3">
+        <v>600</v>
+      </c>
+      <c r="F47" s="3">
         <v>1100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1000</v>
       </c>
       <c r="I47" s="3">
         <v>1000</v>
       </c>
       <c r="J47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K47" s="3">
         <v>800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>400</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>300</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3029,73 +3134,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3141,8 +3252,8 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -3153,14 +3264,17 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
-        <v>200</v>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3304,7 +3424,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -3322,7 +3442,7 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
@@ -3346,16 +3466,19 @@
         <v>300</v>
       </c>
       <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
         <v>900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1100</v>
       </c>
       <c r="S54" s="3">
         <v>1100</v>
       </c>
       <c r="T54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3561,7 +3692,7 @@
         <v>500</v>
       </c>
       <c r="K57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
@@ -3573,34 +3704,37 @@
         <v>600</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
         <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
       </c>
       <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,52 +3745,52 @@
         <v>3200</v>
       </c>
       <c r="F58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>2000</v>
       </c>
       <c r="V58" s="3">
         <v>2000</v>
@@ -3664,138 +3798,147 @@
       <c r="W58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
         <v>7200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>7600</v>
       </c>
       <c r="J59" s="3">
         <v>7600</v>
       </c>
       <c r="K59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="L59" s="3">
         <v>6700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E60" s="3">
         <v>10900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7900</v>
-      </c>
-      <c r="P60" s="3">
-        <v>3400</v>
       </c>
       <c r="Q60" s="3">
         <v>3400</v>
       </c>
       <c r="R60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S60" s="3">
         <v>6800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3809,7 +3952,7 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3859,46 +4002,49 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>700</v>
       </c>
       <c r="F62" s="3">
         <v>700</v>
       </c>
       <c r="G62" s="3">
+        <v>700</v>
+      </c>
+      <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4100</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
@@ -3907,7 +4053,7 @@
         <v>200</v>
       </c>
       <c r="R62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S62" s="3">
         <v>300</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3600</v>
       </c>
       <c r="Q66" s="3">
         <v>3600</v>
       </c>
       <c r="R66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S66" s="3">
         <v>7100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,17 +4504,20 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>100</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -4357,11 +4525,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>100</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-55100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-50200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-51700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-49600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-49400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-46800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-41800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-40900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-42800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-40500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-36400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-29400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-28100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-10500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-8200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-8700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-7000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-10200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5049,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -5058,13 +5257,13 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -5079,13 +5278,16 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5556,16 +5777,19 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5751,16 +5981,19 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-900</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,22 +6299,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
@@ -6077,40 +6323,43 @@
         <v>200</v>
       </c>
       <c r="M100" s="3">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>400</v>
       </c>
       <c r="Q100" s="3">
+        <v>400</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,44 +6423,47 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -6222,21 +6474,24 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>DPWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,16 +786,16 @@
         <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
@@ -797,16 +804,16 @@
         <v>400</v>
       </c>
       <c r="N8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
       </c>
       <c r="P8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>400</v>
@@ -815,48 +822,54 @@
         <v>300</v>
       </c>
       <c r="T8" s="3">
+        <v>400</v>
+      </c>
+      <c r="U8" s="3">
         <v>300</v>
-      </c>
-      <c r="U8" s="3">
-        <v>500</v>
       </c>
       <c r="V8" s="3">
         <v>300</v>
       </c>
       <c r="W8" s="3">
+        <v>500</v>
+      </c>
+      <c r="X8" s="3">
         <v>300</v>
       </c>
-      <c r="X8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
@@ -880,42 +893,48 @@
         <v>300</v>
       </c>
       <c r="S9" s="3">
+        <v>300</v>
+      </c>
+      <c r="T9" s="3">
+        <v>300</v>
+      </c>
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>300</v>
-      </c>
-      <c r="V9" s="3">
-        <v>300</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1100</v>
       </c>
       <c r="X9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -933,40 +952,46 @@
         <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>-800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,14 +1178,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1157,46 +1196,52 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2900</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-1500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>5600</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1206,11 +1251,11 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1228,26 +1273,26 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
       </c>
       <c r="P15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3">
-        <v>100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>100</v>
-      </c>
       <c r="T15" s="3">
         <v>100</v>
       </c>
@@ -1258,13 +1303,19 @@
         <v>100</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>-100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1600</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>-200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>7700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>7100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-7200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-6800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1513,84 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-3400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
-        <v>100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>100</v>
-      </c>
       <c r="X20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1527,138 +1600,150 @@
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-6400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-6700</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>900</v>
       </c>
       <c r="M22" s="3">
         <v>700</v>
       </c>
       <c r="N22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O22" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="P22" s="3">
         <v>800</v>
       </c>
       <c r="Q22" s="3">
+        <v>900</v>
+      </c>
+      <c r="R22" s="3">
+        <v>800</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>800</v>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E23" s="3">
         <v>700</v>
@@ -1667,61 +1752,67 @@
         <v>800</v>
       </c>
       <c r="G23" s="3">
+        <v>700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-7000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-7100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,13 +1953,19 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>800</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
         <v>700</v>
@@ -1871,129 +1974,141 @@
         <v>800</v>
       </c>
       <c r="G26" s="3">
+        <v>700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-7000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-7100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>800</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
         <v>600</v>
       </c>
       <c r="F27" s="3">
+        <v>800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-7000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-7100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>3400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>800</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
         <v>600</v>
       </c>
       <c r="F33" s="3">
+        <v>800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-7000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-7100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>800</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
         <v>600</v>
       </c>
       <c r="F35" s="3">
+        <v>800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-7000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-7100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,50 +2832,52 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
@@ -2712,25 +2885,31 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,19 +2976,25 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>500</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
@@ -2824,49 +3009,55 @@
         <v>500</v>
       </c>
       <c r="K43" s="3">
+        <v>500</v>
+      </c>
+      <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2931,15 +3122,21 @@
         <v>0</v>
       </c>
       <c r="X44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2953,15 +3150,15 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2972,105 +3169,117 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
-        <v>900</v>
-      </c>
       <c r="F46" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G46" s="3">
         <v>900</v>
       </c>
       <c r="H46" s="3">
+        <v>700</v>
+      </c>
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>900</v>
+      </c>
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3081,46 +3290,46 @@
         <v>600</v>
       </c>
       <c r="F47" s="3">
+        <v>600</v>
+      </c>
+      <c r="G47" s="3">
+        <v>600</v>
+      </c>
+      <c r="H47" s="3">
         <v>1100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>800</v>
       </c>
       <c r="I47" s="3">
         <v>1000</v>
       </c>
       <c r="J47" s="3">
+        <v>800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M47" s="3">
         <v>800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>400</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
-        <v>300</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" s="3">
+        <v>300</v>
+      </c>
+      <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3137,55 +3346,61 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4100</v>
       </c>
-      <c r="O48" s="3">
-        <v>100</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
         <v>200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>400</v>
-      </c>
-      <c r="R48" s="3">
-        <v>500</v>
       </c>
       <c r="S48" s="3">
         <v>400</v>
@@ -3194,19 +3409,25 @@
         <v>500</v>
       </c>
       <c r="U48" s="3">
+        <v>400</v>
+      </c>
+      <c r="V48" s="3">
+        <v>500</v>
+      </c>
+      <c r="W48" s="3">
         <v>600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3255,11 +3476,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
@@ -3267,14 +3488,20 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3427,10 +3666,10 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -3445,10 +3684,10 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
@@ -3469,16 +3708,22 @@
         <v>300</v>
       </c>
       <c r="V52" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="W52" s="3">
         <v>300</v>
       </c>
       <c r="X52" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3790,14 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3554,67 +3805,73 @@
         <v>2900</v>
       </c>
       <c r="E54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G54" s="3">
         <v>2500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1300</v>
       </c>
       <c r="S54" s="3">
         <v>1100</v>
       </c>
       <c r="T54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3924,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,7 +3935,7 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
@@ -3695,10 +3956,10 @@
         <v>500</v>
       </c>
       <c r="L57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
@@ -3707,39 +3968,45 @@
         <v>600</v>
       </c>
       <c r="P57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>600</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E58" s="3">
         <v>3200</v>
@@ -3748,149 +4015,161 @@
         <v>3200</v>
       </c>
       <c r="G58" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="H58" s="3">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="I58" s="3">
         <v>3500</v>
       </c>
       <c r="J58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>2000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>2000</v>
       </c>
       <c r="X58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F59" s="3">
         <v>6200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>8600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>8800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>5300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>6200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>7500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F60" s="3">
         <v>9900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>12600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>11100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>10700</v>
       </c>
       <c r="J60" s="3">
         <v>11100</v>
@@ -3899,46 +4178,52 @@
         <v>10700</v>
       </c>
       <c r="L60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="N60" s="3">
         <v>9500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>11400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>7500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>11200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>5000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3955,10 +4240,10 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4005,61 +4290,67 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>900</v>
+      </c>
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4100</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>200</v>
-      </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
       </c>
       <c r="S62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U62" s="3">
         <v>300</v>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F66" s="3">
         <v>11000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>13600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>11900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>12500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>11500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4516,25 +4851,25 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-53900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-54700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-55300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-55100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-53100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-52200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-52500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-52000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-50200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-51700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-49600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-49400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-46800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-41800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-40900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-42800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-40500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-36400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-29400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-28100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-8200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-9300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-10000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-10500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-8600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-8200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-8700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-8400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-7100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-9000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-7300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-8300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-5900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-6700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-10200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-3700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-3600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>800</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
         <v>600</v>
       </c>
       <c r="F81" s="3">
+        <v>800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-7000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-7100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5251,26 +5648,26 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
-        <v>100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
-      </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
@@ -5281,13 +5678,19 @@
         <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-200</v>
       </c>
       <c r="V89" s="3">
         <v>-400</v>
       </c>
       <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5780,16 +6221,22 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5984,16 +6443,22 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-900</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,19 +6775,25 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -6311,55 +6802,61 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
-      </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
         <v>400</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>400</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,49 +6923,55 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -6477,21 +6980,27 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>DPWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,13 +796,13 @@
         <v>200</v>
       </c>
       <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>400</v>
@@ -810,40 +814,43 @@
         <v>400</v>
       </c>
       <c r="P8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>400</v>
       </c>
       <c r="R8" s="3">
         <v>400</v>
       </c>
       <c r="S8" s="3">
+        <v>400</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>300</v>
       </c>
       <c r="V8" s="3">
         <v>300</v>
       </c>
       <c r="W8" s="3">
+        <v>300</v>
+      </c>
+      <c r="X8" s="3">
         <v>500</v>
-      </c>
-      <c r="X8" s="3">
-        <v>300</v>
       </c>
       <c r="Y8" s="3">
         <v>300</v>
       </c>
       <c r="Z8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -854,7 +861,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
@@ -863,16 +870,16 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
@@ -899,25 +906,28 @@
         <v>300</v>
       </c>
       <c r="U9" s="3">
+        <v>300</v>
+      </c>
+      <c r="V9" s="3">
         <v>400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>200</v>
-      </c>
-      <c r="W9" s="3">
-        <v>300</v>
       </c>
       <c r="X9" s="3">
         <v>300</v>
       </c>
       <c r="Y9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -928,7 +938,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -937,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -958,40 +968,43 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>-800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1184,11 +1204,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1202,23 +1222,23 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2900</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1226,22 +1246,25 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-1500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5600</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1257,8 +1280,8 @@
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1279,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -1288,13 +1311,13 @@
         <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>200</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
@@ -1309,13 +1332,16 @@
         <v>100</v>
       </c>
       <c r="Y15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>-100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>800</v>
       </c>
       <c r="Q17" s="3">
+        <v>800</v>
+      </c>
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1000</v>
       </c>
       <c r="T17" s="3">
         <v>1000</v>
       </c>
       <c r="U17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V17" s="3">
         <v>2800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>-200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-7200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,90 +1548,94 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>700</v>
       </c>
       <c r="E20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1100</v>
       </c>
       <c r="G20" s="3">
         <v>1100</v>
       </c>
       <c r="H20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
-        <v>100</v>
-      </c>
       <c r="Y20" s="3">
         <v>100</v>
       </c>
       <c r="Z20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="E21" s="3">
+        <v>-3000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
@@ -1606,76 +1643,79 @@
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-6400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1684,135 +1724,141 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>700</v>
       </c>
       <c r="M22" s="3">
         <v>700</v>
       </c>
       <c r="N22" s="3">
+        <v>700</v>
+      </c>
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
-      </c>
-      <c r="X22" s="3">
-        <v>300</v>
       </c>
       <c r="Y22" s="3">
         <v>300</v>
       </c>
       <c r="Z22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>300</v>
       </c>
       <c r="E23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-7100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>300</v>
       </c>
       <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-7100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>300</v>
       </c>
       <c r="E27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-7100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1100</v>
       </c>
       <c r="G32" s="3">
         <v>-1100</v>
       </c>
       <c r="H32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>300</v>
       </c>
       <c r="E33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-7100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>300</v>
       </c>
       <c r="E35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-7100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2843,44 +2930,44 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
@@ -2891,25 +2978,28 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,22 +3072,25 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
-      </c>
-      <c r="G43" s="3">
-        <v>500</v>
       </c>
       <c r="H43" s="3">
         <v>500</v>
@@ -3015,49 +3108,52 @@
         <v>500</v>
       </c>
       <c r="M43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>500</v>
       </c>
       <c r="R43" s="3">
         <v>500</v>
       </c>
       <c r="S43" s="3">
+        <v>500</v>
+      </c>
+      <c r="T43" s="3">
         <v>300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>200</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
       <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3128,18 +3224,21 @@
         <v>0</v>
       </c>
       <c r="Z44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3156,12 +3255,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -3175,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -3184,19 +3283,19 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>500</v>
@@ -3204,87 +3303,93 @@
       <c r="Z45" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>800</v>
       </c>
       <c r="F46" s="3">
         <v>800</v>
       </c>
       <c r="G46" s="3">
+        <v>800</v>
+      </c>
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>900</v>
       </c>
       <c r="J46" s="3">
         <v>900</v>
       </c>
       <c r="K46" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L46" s="3">
         <v>600</v>
       </c>
       <c r="M46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N46" s="3">
         <v>700</v>
       </c>
       <c r="O46" s="3">
+        <v>700</v>
+      </c>
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
-      </c>
-      <c r="T46" s="3">
-        <v>400</v>
       </c>
       <c r="U46" s="3">
         <v>400</v>
       </c>
       <c r="V46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
       </c>
       <c r="X46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y46" s="3">
         <v>700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
         <v>600</v>
@@ -3296,43 +3401,43 @@
         <v>600</v>
       </c>
       <c r="H47" s="3">
+        <v>600</v>
+      </c>
+      <c r="I47" s="3">
         <v>1100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>800</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1000</v>
       </c>
       <c r="L47" s="3">
         <v>1000</v>
       </c>
       <c r="M47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N47" s="3">
         <v>800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>400</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>300</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3352,82 +3457,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4100</v>
       </c>
-      <c r="Q48" s="3">
-        <v>100</v>
-      </c>
       <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3482,8 +3593,8 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
+      <c r="U49" s="3">
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
@@ -3494,14 +3605,17 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="3">
-        <v>200</v>
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3672,7 +3792,7 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -3690,7 +3810,7 @@
         <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
@@ -3714,16 +3834,19 @@
         <v>300</v>
       </c>
       <c r="X52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y52" s="3">
         <v>900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1300</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1100</v>
       </c>
       <c r="V54" s="3">
         <v>1100</v>
       </c>
       <c r="W54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X54" s="3">
         <v>1200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,19 +4056,20 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
@@ -3962,7 +4093,7 @@
         <v>500</v>
       </c>
       <c r="N57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>600</v>
@@ -3974,34 +4105,37 @@
         <v>600</v>
       </c>
       <c r="R57" s="3">
+        <v>600</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
       <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
         <v>600</v>
-      </c>
-      <c r="V57" s="3">
-        <v>500</v>
       </c>
       <c r="W57" s="3">
         <v>500</v>
       </c>
       <c r="X57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4009,7 +4143,7 @@
         <v>3300</v>
       </c>
       <c r="E58" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F58" s="3">
         <v>3200</v>
@@ -4021,52 +4155,52 @@
         <v>3200</v>
       </c>
       <c r="I58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3100</v>
-      </c>
-      <c r="X58" s="3">
-        <v>2000</v>
       </c>
       <c r="Y58" s="3">
         <v>2000</v>
@@ -4074,156 +4208,165 @@
       <c r="Z58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E59" s="3">
         <v>9100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>7600</v>
       </c>
       <c r="M59" s="3">
         <v>7600</v>
       </c>
       <c r="N59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="O59" s="3">
         <v>6700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E60" s="3">
         <v>12900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7900</v>
-      </c>
-      <c r="S60" s="3">
-        <v>3400</v>
       </c>
       <c r="T60" s="3">
         <v>3400</v>
       </c>
       <c r="U60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V60" s="3">
         <v>6800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4246,7 +4389,7 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4296,55 +4439,58 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>700</v>
       </c>
       <c r="I62" s="3">
         <v>700</v>
       </c>
       <c r="J62" s="3">
+        <v>700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4100</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
@@ -4353,7 +4499,7 @@
         <v>200</v>
       </c>
       <c r="U62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V62" s="3">
         <v>300</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E66" s="3">
         <v>13800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>3600</v>
       </c>
       <c r="T66" s="3">
         <v>3600</v>
       </c>
       <c r="U66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V66" s="3">
         <v>7100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4857,10 +5025,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -4869,10 +5037,10 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-54700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-55100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-53100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-52000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-50200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-51700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-49600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-49400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-46800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-41800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-40900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-42800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-40500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-36400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-29400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-28100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-8300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-7000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-6700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-10200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>300</v>
       </c>
       <c r="E81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-7100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5654,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -5663,13 +5862,13 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -5684,13 +5883,16 @@
         <v>100</v>
       </c>
       <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6227,16 +6448,19 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6449,16 +6679,19 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-900</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,40 +7024,43 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
@@ -6823,40 +7069,43 @@
         <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>400</v>
       </c>
       <c r="T100" s="3">
+        <v>400</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,52 +7178,55 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -6986,21 +7238,24 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>DPWW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -799,13 +803,13 @@
         <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>400</v>
@@ -817,40 +821,43 @@
         <v>400</v>
       </c>
       <c r="Q8" s="3">
+        <v>400</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>400</v>
       </c>
       <c r="S8" s="3">
         <v>400</v>
       </c>
       <c r="T8" s="3">
+        <v>400</v>
+      </c>
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>300</v>
       </c>
       <c r="W8" s="3">
         <v>300</v>
       </c>
       <c r="X8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y8" s="3">
         <v>500</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>300</v>
       </c>
       <c r="Z8" s="3">
         <v>300</v>
       </c>
       <c r="AA8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,7 +871,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
@@ -873,16 +880,16 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
@@ -909,25 +916,28 @@
         <v>300</v>
       </c>
       <c r="V9" s="3">
+        <v>300</v>
+      </c>
+      <c r="W9" s="3">
         <v>400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>200</v>
-      </c>
-      <c r="X9" s="3">
-        <v>300</v>
       </c>
       <c r="Y9" s="3">
         <v>300</v>
       </c>
       <c r="Z9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -941,7 +951,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -950,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
@@ -971,40 +981,43 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>-800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,13 +1203,16 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1207,11 +1227,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1225,23 +1245,23 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2900</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1249,39 +1269,42 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-1500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5600</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1305,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
@@ -1314,13 +1337,13 @@
         <v>100</v>
       </c>
       <c r="S15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
         <v>200</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V15" s="3">
         <v>100</v>
@@ -1335,13 +1358,16 @@
         <v>100</v>
       </c>
       <c r="Z15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,13 +1392,14 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>300</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1381,75 +1408,78 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>-100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>800</v>
       </c>
       <c r="R17" s="3">
+        <v>800</v>
+      </c>
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1000</v>
       </c>
       <c r="U17" s="3">
         <v>1000</v>
       </c>
       <c r="V17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W17" s="3">
         <v>2800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>-200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-100</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
@@ -1458,70 +1488,73 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-6800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,96 +1582,100 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1100</v>
       </c>
       <c r="H20" s="3">
         <v>1100</v>
       </c>
       <c r="I20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
-        <v>100</v>
-      </c>
       <c r="Z20" s="3">
         <v>100</v>
       </c>
       <c r="AA20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3000</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -1646,79 +1683,82 @@
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA21" s="3" t="s">
+      <c r="AB21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1727,138 +1767,144 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>700</v>
       </c>
       <c r="N22" s="3">
         <v>700</v>
       </c>
       <c r="O22" s="3">
+        <v>700</v>
+      </c>
+      <c r="P22" s="3">
         <v>900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>300</v>
       </c>
       <c r="Z22" s="3">
         <v>300</v>
       </c>
       <c r="AA22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-7100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-7100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-7100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1100</v>
       </c>
       <c r="H32" s="3">
         <v>-1100</v>
       </c>
       <c r="I32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-100</v>
       </c>
       <c r="Z32" s="3">
         <v>-100</v>
       </c>
       <c r="AA32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-7100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-7100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,56 +3007,57 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
@@ -2981,25 +3068,28 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
         <v>100</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,25 +3165,28 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>500</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
@@ -3111,49 +3204,52 @@
         <v>500</v>
       </c>
       <c r="N43" s="3">
+        <v>500</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
-      </c>
-      <c r="R43" s="3">
-        <v>500</v>
       </c>
       <c r="S43" s="3">
         <v>500</v>
       </c>
       <c r="T43" s="3">
+        <v>500</v>
+      </c>
+      <c r="U43" s="3">
         <v>300</v>
-      </c>
-      <c r="U43" s="3">
-        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>200</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
       <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3227,10 +3323,13 @@
         <v>0</v>
       </c>
       <c r="AA44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3240,8 +3339,8 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3258,12 +3357,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -3277,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -3286,19 +3385,19 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>500</v>
@@ -3306,85 +3405,91 @@
       <c r="AA45" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>800</v>
       </c>
       <c r="G46" s="3">
         <v>800</v>
       </c>
       <c r="H46" s="3">
+        <v>800</v>
+      </c>
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>900</v>
       </c>
       <c r="K46" s="3">
         <v>900</v>
       </c>
       <c r="L46" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M46" s="3">
         <v>600</v>
       </c>
       <c r="N46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O46" s="3">
         <v>700</v>
       </c>
       <c r="P46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
-      </c>
-      <c r="U46" s="3">
-        <v>400</v>
       </c>
       <c r="V46" s="3">
         <v>400</v>
       </c>
       <c r="W46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
       </c>
       <c r="Y46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3392,7 +3497,7 @@
         <v>700</v>
       </c>
       <c r="E47" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F47" s="3">
         <v>600</v>
@@ -3404,43 +3509,43 @@
         <v>600</v>
       </c>
       <c r="I47" s="3">
+        <v>600</v>
+      </c>
+      <c r="J47" s="3">
         <v>1100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>800</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1000</v>
       </c>
       <c r="M47" s="3">
         <v>1000</v>
       </c>
       <c r="N47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O47" s="3">
         <v>800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>400</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>300</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3460,85 +3565,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4100</v>
       </c>
-      <c r="R48" s="3">
-        <v>100</v>
-      </c>
       <c r="S48" s="3">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3596,8 +3707,8 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
+      <c r="V49" s="3">
+        <v>0</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
@@ -3608,14 +3719,17 @@
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z49" s="3">
-        <v>200</v>
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3795,7 +3915,7 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -3813,7 +3933,7 @@
         <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
@@ -3837,16 +3957,19 @@
         <v>300</v>
       </c>
       <c r="Y52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z52" s="3">
         <v>900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3931,76 +4057,79 @@
         <v>2700</v>
       </c>
       <c r="E54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1300</v>
-      </c>
-      <c r="V54" s="3">
-        <v>1100</v>
       </c>
       <c r="W54" s="3">
         <v>1100</v>
       </c>
       <c r="X54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,13 +4197,13 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
@@ -4096,7 +4227,7 @@
         <v>500</v>
       </c>
       <c r="O57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
@@ -4108,45 +4239,48 @@
         <v>600</v>
       </c>
       <c r="S57" s="3">
+        <v>600</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
       </c>
       <c r="V57" s="3">
+        <v>400</v>
+      </c>
+      <c r="W57" s="3">
         <v>600</v>
-      </c>
-      <c r="W57" s="3">
-        <v>500</v>
       </c>
       <c r="X57" s="3">
         <v>500</v>
       </c>
       <c r="Y57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z57" s="3">
         <v>600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="E58" s="3">
         <v>3300</v>
       </c>
       <c r="F58" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G58" s="3">
         <v>3200</v>
@@ -4158,52 +4292,52 @@
         <v>3200</v>
       </c>
       <c r="J58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3100</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>2000</v>
       </c>
       <c r="Z58" s="3">
         <v>2000</v>
@@ -4211,162 +4345,171 @@
       <c r="AA58" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E59" s="3">
         <v>8700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>7600</v>
       </c>
       <c r="N59" s="3">
         <v>7600</v>
       </c>
       <c r="O59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P59" s="3">
         <v>6700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E60" s="3">
         <v>12500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7900</v>
-      </c>
-      <c r="T60" s="3">
-        <v>3400</v>
       </c>
       <c r="U60" s="3">
         <v>3400</v>
       </c>
       <c r="V60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="W60" s="3">
         <v>6800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4392,7 +4535,7 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -4442,58 +4585,61 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>700</v>
       </c>
       <c r="J62" s="3">
         <v>700</v>
       </c>
       <c r="K62" s="3">
+        <v>700</v>
+      </c>
+      <c r="L62" s="3">
         <v>1800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4100</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>200</v>
@@ -4502,7 +4648,7 @@
         <v>200</v>
       </c>
       <c r="V62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W62" s="3">
         <v>300</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E66" s="3">
         <v>13300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8100</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3600</v>
       </c>
       <c r="U66" s="3">
         <v>3600</v>
       </c>
       <c r="V66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W66" s="3">
         <v>7100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5028,10 +5196,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -5040,10 +5208,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-55700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-54700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-55300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-55100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-52500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-52000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-50200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-51700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-49600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-49400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-46800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-41800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-40900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-42800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-40500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-36400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-29400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-28100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-26600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-10500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-7100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-8300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-7000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-6700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-10200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-7100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5856,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -5865,13 +6064,13 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -5886,13 +6085,16 @@
         <v>100</v>
       </c>
       <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6451,16 +6672,19 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6682,16 +6912,19 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-900</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,34 +7282,34 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
@@ -7072,40 +7318,43 @@
         <v>200</v>
       </c>
       <c r="Q100" s="3">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>400</v>
       </c>
       <c r="U100" s="3">
+        <v>400</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,55 +7430,58 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -7241,21 +7493,24 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
         <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPWW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>DPWW</t>
   </si>
@@ -1212,10 +1212,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1398,11 +1398,11 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>-200</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1478,11 +1478,11 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>400</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1588,11 +1588,11 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
         <v>-2900</v>
@@ -1668,11 +1668,11 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>600</v>
       </c>
       <c r="F21" s="3">
         <v>-3000</v>
@@ -1686,8 +1686,8 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
-        <v>1000</v>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>-1700</v>
@@ -1828,8 +1828,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>600</v>
       </c>
       <c r="E23" s="3">
         <v>300</v>
@@ -2068,8 +2068,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>600</v>
       </c>
       <c r="E26" s="3">
         <v>300</v>
@@ -2148,8 +2148,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>600</v>
       </c>
       <c r="E27" s="3">
         <v>300</v>
@@ -2548,11 +2548,11 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
         <v>2900</v>
@@ -2628,8 +2628,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>600</v>
       </c>
       <c r="E33" s="3">
         <v>300</v>
@@ -2788,8 +2788,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>600</v>
       </c>
       <c r="E35" s="3">
         <v>300</v>
@@ -5908,8 +5908,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>600</v>
       </c>
       <c r="E81" s="3">
         <v>300</v>
